--- a/3. Power BI - Global Superstore/Design thinking and Metadata.xlsx
+++ b/3. Power BI - Global Superstore/Design thinking and Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Power BI\K8 Project final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\DA_Apply\3. Power BI - Global Superstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84092294-DA4C-4C46-9075-6C836DFE8027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C4EA0-2D18-45D4-AEFE-EC193C9C3491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đề bài" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,16 @@
     <sheet name="Step to follow" sheetId="2" r:id="rId3"/>
     <sheet name="Recommendation" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Đề bài'!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Step to follow'!$A$1:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>Dataset: Global Superstore Sales</t>
   </si>
@@ -55,76 +59,37 @@
     <t>Detail</t>
   </si>
   <si>
-    <t>Hint</t>
-  </si>
-  <si>
-    <t>Trả lời</t>
-  </si>
-  <si>
     <t>Step 1 - Empathize</t>
   </si>
   <si>
     <t>Tìm hiểu dataset</t>
   </si>
   <si>
-    <t>Xác định entity, dimension, measure
-- Dimension là mang tính định tính (có thể hiểu là những gì có thể dùng trong hàm group by SQL)
-- Measure: mang tính định lượng, có thể sử dụng để tính toán</t>
-  </si>
-  <si>
     <t>Đặt và trả lời các câu hỏi</t>
   </si>
   <si>
-    <t>Dựa vào đề bài để trả lời 3 câu hỏi:
-- Báo cáo dữ liệu này dành cho ai?
-- Mục đích của báo cáo là gì?
-- Mong muốn của người xem báo cáo?</t>
-  </si>
-  <si>
     <t>Đánh giá và làm sạch dataset</t>
   </si>
   <si>
-    <t>- Nhiều giá trị null không?
-- Có giá trị nào bất thường?
-- Xem định dạng type của dữ liệu có bị nhầm lẫn không?
-- ...</t>
-  </si>
-  <si>
     <t>Step 2 - Define</t>
   </si>
   <si>
     <t>Xác định key goal</t>
   </si>
   <si>
-    <t>Dựa vào bước Empathize</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trả lời những câu hỏi quan trọng </t>
   </si>
   <si>
-    <t>Sử dụng phương pháp logic tree hoặc brainstorming question list</t>
-  </si>
-  <si>
     <t>Ranking</t>
   </si>
   <si>
-    <t>Chọn lọc từ list trên</t>
-  </si>
-  <si>
     <t>Step 3 - Ideate</t>
   </si>
   <si>
     <t>List down Key metrics</t>
   </si>
   <si>
-    <t>- Bạn nên list down metrics theo từng câu hỏi ở bước define. Metrics nào có thể được sử dụng để trả lời (các) câu hỏi đó
-- Các metrics được sử dụng không giới hạn là những measure có sẵn trong bảng. Bạn có thể tùy ý tạo ra các metrics khác bằng việc tạo các calculated columns và DAX measures trong Power BI</t>
-  </si>
-  <si>
     <t>Phân chia bố cục báo cáo</t>
-  </si>
-  <si>
-    <t>Phân chia bố cục cho từng trang báo cáo. Báo cáo không giới hạn số trang, việc lựa chọn làm báo cáo trong 1 trang hay nhiều trang phụ thuộc ở goal và quyết định của bạn. Tuy nhiên, cần lưu ý nếu làm báo cáo nhiều trang, mỗi trang nên có 1 role cụ thể và phục vụ một mục đích cụ thể</t>
   </si>
   <si>
     <t>Step 4 - Prototype</t>
@@ -140,9 +105,6 @@
 </t>
   </si>
   <si>
-    <t>Không cần viết câu trả lời vào mục này, các bạn tự review và chỉnh sửa báo cáo của mình. Output gửi đi là output sau khi mọi người review</t>
-  </si>
-  <si>
     <t>Order ID</t>
   </si>
   <si>
@@ -291,25 +253,6 @@
   </si>
   <si>
     <t>Recommendation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Lựa chọn loại chart phù hợp với các câu hỏi
-- Cách trình bày, layout từng phần của báo cáo (sắp xếp chart, kích thước,...)
-- Lựa chọn màu sắc theme báo cáo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>Phần này được thể hiện ngay ở báo cáo nên các bạn không cần viết câu trả lời cho mục này</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> - Dimension: Thông tin về Customers (ID, Name, Segment),  Order (ID, Date, Location, Market/Region, Product Name, ID, Category, Sub-Category, Priority)...
@@ -325,11 +268,6 @@
       Lựa chọn sản phẩm chiến lược</t>
   </si>
   <si>
-    <t xml:space="preserve">- Thực hiện Clean Data trong Power Query
-- Bảng People, cột Region hiện tại có một số region như Central, North, South chưa được phân loại Market, có thể dự đoán do thiếu data
-</t>
-  </si>
-  <si>
     <t>- Sales, Profit, Profit Margin</t>
   </si>
   <si>
@@ -352,93 +290,102 @@
 …</t>
   </si>
   <si>
-    <t xml:space="preserve">Báo cáo 1 trang, flow Overview to Detail:
+    <t>Có 6 loại sản phẩm có tổng doanh số cao (&gt;1,000K) và ổn định qua cả 4 năm: Phones, Copiers, Chairs, Bookcases, Storages, Appliances. Nên có thể coi đây hiện đang là 6 sp chính của doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Doanh thu và lợi nhuận đều có mức tăng trưởng ấn tượng qua các năm (18-27% với doanh số và 23-32% với lợi nhuận), Mùa có doanh thu cao thường là các tháng cuối năm</t>
+  </si>
+  <si>
+    <t>4 thị trường chính hiện tại đang là APAC, EU, US, LATAM; Central EU và Mỹ lần lượt là khu vực và quốc gia có doanh số lớn nhất</t>
+  </si>
+  <si>
+    <t>Trên 50% khách mua hàng là để tiêu dùng, mặt hàng tiêu dùng nhiều nhất là điện thoại</t>
+  </si>
+  <si>
+    <t>Doanh số của 3 danh mục sản phẩm (Category) tương đối đều nhau (30 - 38 - 32%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Tình hình kinh doanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Chiến lược mở rộng thị trường</t>
+  </si>
+  <si>
+    <t>Tỷ suất lợi nhuận (Profit Margin - Margin) duy trì ổn định ở 11-12%</t>
+  </si>
+  <si>
+    <t>OMTM: nhận thấy Sales &amp; Profit đều tăng trưởng đều đặn qua các năm, chứng tỏ chiến lược nhắm vào tăng doanh số hiện tại đang tương đối thành công, bài phân tích sẽ tập trung vào việc mở rộng thị trường thông qua chỉ số Tỷ suất lợi nhuận (PM)</t>
+  </si>
+  <si>
+    <t>Canada hiện tại là thị trường tiềm năng nhất với PM rất cao 26.6% nhưng doanh số còn ít (chỉ $70k), các mặt hàng hiện chiếm tỷ trọng cao ở Canada hiện cũng là các mặt sẳn phẩm chính của DN (chỉ trừ Chairs)</t>
+  </si>
+  <si>
+    <t>APAC là thị trường lớn nhất nhưng PM lại phân hoá lớn theo các khu vực: Các nước Đông Á &amp; Trung Á đều có PM khá cao (19%), duy chỉ trừ một số nước như Pakistan, Hàn Quốc, Mông Cổ. Thị trường ĐNÁ tuy có doanh số đứng t3 trên toàn bộ khu vực nhưng lại có PM cực thấp (2.02%)</t>
+  </si>
+  <si>
+    <t>Mexico &amp; Miền Tây Hoa Kỳ có PM tương đối cao (15.7%), lại gần như là thị trường quê nhà, tương đối có triển vọng tiếp tục phát triển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Lựa chọn sản phẩm chiến lược</t>
+  </si>
+  <si>
+    <t>Copiers là sản phẩm chính duy nhất duy trì được PM tương đối cao (17.13%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phones % Bookcases có PM ở ngưỡng trung bình (11-12%), nhưng sau chuỗi trượt PM (2011-2013) thì đang có dấu hiệu khởi sắc trở lại </t>
+  </si>
+  <si>
+    <t>Storages là loại sp tiền nămg với mức PM tuy ít hơn (10%) nhưng đang tăng đều đặn qua các năm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Canada</t>
+  </si>
+  <si>
+    <t>Là thị trường có tiềm năng có thể mở rộng lớn nhất, các sản phẩm chiến lược hầu như đều là các sản phẩm chính của DN</t>
+  </si>
+  <si>
+    <t>Sản phầm chiến lược của thị trường là Accessories (PM tăng ấn tượng 18 -&gt; 36% trong năm 2014), dù hiện tại doanh số chưa cao, kế đó là Storages (PM có suy giảm trong 2013 nhưng đang dần phục hồi)</t>
+  </si>
+  <si>
+    <t>Nên tìm hiểu thêm tại sao loại sp Copiers dù có doanh số cao và PM ấn tượng nhưng lại ngừng tiếp thị trong năm 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      North &amp; Central Asia</t>
+  </si>
+  <si>
+    <t>Tiếp tục giữ vững phong độ &amp; mở rộng thị phần ở các nước hiện đang có doanh số cao trong khu vực (Trung, Hàn, Nhật, Bangladesh), một số nước như Pakistan, Hàn Quốc, Mông Cổ có thể cân nhắc rút khỏi thị trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Một số thị trường cụ thể</t>
+  </si>
+  <si>
+    <t>Một số đất nước đang có doanh số cao &amp; PM lớn, là những đối tác quen thuộc &amp; còn tiềm năng phát triển: Trung (Appliances, Phones), Ấn (Copiers), Anh (Bookcases), Đức (Phones, Accessories)</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>DESIGN THINKING</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>- Thực hiện Clean Data trong Power Query
+- Bảng People, cột Region hiện tại có một số region như Central, North, South chưa được phân loại Market, có thể dự đoán do thiếu data</t>
+  </si>
+  <si>
+    <t>Báo cáo 1 trang, flow Overview to Detail:
 - Overview ở trên gồm các metrics chính &amp; theo thời gian
 - Detail ở dưới là các metrics đó phân theo từng nhóm dimensions
-- Áp dụng filter theo Time và Metrics
-</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Có 6 loại sản phẩm có tổng doanh số cao (&gt;1,000K) và ổn định qua cả 4 năm: Phones, Copiers, Chairs, Bookcases, Storages, Appliances. Nên có thể coi đây hiện đang là 6 sp chính của doanh nghiệp</t>
-  </si>
-  <si>
-    <t>Doanh thu và lợi nhuận đều có mức tăng trưởng ấn tượng qua các năm (18-27% với doanh số và 23-32% với lợi nhuận), Mùa có doanh thu cao thường là các tháng cuối năm</t>
-  </si>
-  <si>
-    <t>4 thị trường chính hiện tại đang là APAC, EU, US, LATAM; Central EU và Mỹ lần lượt là khu vực và quốc gia có doanh số lớn nhất</t>
-  </si>
-  <si>
-    <t>Trên 50% khách mua hàng là để tiêu dùng, mặt hàng tiêu dùng nhiều nhất là điện thoại</t>
-  </si>
-  <si>
-    <t>Doanh số của 3 danh mục sản phẩm (Category) tương đối đều nhau (30 - 38 - 32%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Tình hình kinh doanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Chiến lược mở rộng thị trường</t>
-  </si>
-  <si>
-    <t>Tỷ suất lợi nhuận (Profit Margin - Margin) duy trì ổn định ở 11-12%</t>
-  </si>
-  <si>
-    <t>OMTM: nhận thấy Sales &amp; Profit đều tăng trưởng đều đặn qua các năm, chứng tỏ chiến lược nhắm vào tăng doanh số hiện tại đang tương đối thành công, bài phân tích sẽ tập trung vào việc mở rộng thị trường thông qua chỉ số Tỷ suất lợi nhuận (PM)</t>
-  </si>
-  <si>
-    <t>Canada hiện tại là thị trường tiềm năng nhất với PM rất cao 26.6% nhưng doanh số còn ít (chỉ $70k), các mặt hàng hiện chiếm tỷ trọng cao ở Canada hiện cũng là các mặt sẳn phẩm chính của DN (chỉ trừ Chairs)</t>
-  </si>
-  <si>
-    <t>APAC là thị trường lớn nhất nhưng PM lại phân hoá lớn theo các khu vực: Các nước Đông Á &amp; Trung Á đều có PM khá cao (19%), duy chỉ trừ một số nước như Pakistan, Hàn Quốc, Mông Cổ. Thị trường ĐNÁ tuy có doanh số đứng t3 trên toàn bộ khu vực nhưng lại có PM cực thấp (2.02%)</t>
-  </si>
-  <si>
-    <t>Mexico &amp; Miền Tây Hoa Kỳ có PM tương đối cao (15.7%), lại gần như là thị trường quê nhà, tương đối có triển vọng tiếp tục phát triển</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Lựa chọn sản phẩm chiến lược</t>
-  </si>
-  <si>
-    <t>Copiers là sản phẩm chính duy nhất duy trì được PM tương đối cao (17.13%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phones % Bookcases có PM ở ngưỡng trung bình (11-12%), nhưng sau chuỗi trượt PM (2011-2013) thì đang có dấu hiệu khởi sắc trở lại </t>
-  </si>
-  <si>
-    <t>Storages là loại sp tiền nămg với mức PM tuy ít hơn (10%) nhưng đang tăng đều đặn qua các năm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Canada</t>
-  </si>
-  <si>
-    <t>Là thị trường có tiềm năng có thể mở rộng lớn nhất, các sản phẩm chiến lược hầu như đều là các sản phẩm chính của DN</t>
-  </si>
-  <si>
-    <t>Sản phầm chiến lược của thị trường là Accessories (PM tăng ấn tượng 18 -&gt; 36% trong năm 2014), dù hiện tại doanh số chưa cao, kế đó là Storages (PM có suy giảm trong 2013 nhưng đang dần phục hồi)</t>
-  </si>
-  <si>
-    <t>Nên tìm hiểu thêm tại sao loại sp Copiers dù có doanh số cao và PM ấn tượng nhưng lại ngừng tiếp thị trong năm 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      North &amp; Central Asia</t>
-  </si>
-  <si>
-    <t>Tiếp tục giữ vững phong độ &amp; mở rộng thị phần ở các nước hiện đang có doanh số cao trong khu vực (Trung, Hàn, Nhật, Bangladesh), một số nước như Pakistan, Hàn Quốc, Mông Cổ có thể cân nhắc rút khỏi thị trường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Một số thị trường cụ thể</t>
-  </si>
-  <si>
-    <t>Một số đất nước đang có doanh số cao &amp; PM lớn, là những đối tác quen thuộc &amp; còn tiềm năng phát triển: Trung (Appliances, Phones), Ấn (Copiers), Anh (Bookcases), Đức (Phones, Accessories)</t>
+- Áp dụng filter theo Time và Metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -451,11 +398,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
@@ -480,49 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans"/>
@@ -535,14 +434,68 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
@@ -621,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -644,89 +597,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,71 +946,368 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="1" width="25.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-    </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <pageMargins left="1" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1019,7 +1316,7 @@
   <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1029,892 +1326,892 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
+      <c r="A72" s="1"/>
     </row>
     <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="1"/>
     </row>
     <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
+      <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
+      <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="2"/>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="2"/>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="2"/>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="2"/>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="2"/>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="2"/>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1"/>
     </row>
     <row r="133" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
+      <c r="A133" s="1"/>
     </row>
     <row r="134" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
+      <c r="A135" s="1"/>
     </row>
     <row r="136" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="2"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="2"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="2"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="2"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="2"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="2"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A174" s="2"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A178" s="2"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="2"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A182" s="2"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A183" s="2"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A184" s="2"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A185" s="2"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A186" s="2"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A188" s="2"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A190" s="2"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A191" s="2"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A192" s="2"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A193" s="2"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A195" s="2"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A196" s="2"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A197" s="2"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A198" s="2"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A200" s="2"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A201" s="2"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A202" s="2"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A204" s="2"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A205" s="2"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A208" s="2"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A209" s="2"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A210" s="2"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A211" s="2"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A212" s="2"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A213" s="2"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A214" s="2"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A217" s="2"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A218" s="2"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A219" s="2"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A220" s="2"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A223" s="2"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A226" s="2"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A227" s="2"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A228" s="2"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A230" s="2"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A231" s="2"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A232" s="2"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A233" s="2"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A234" s="2"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A235" s="2"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A236" s="2"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A237" s="2"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A238" s="2"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A239" s="2"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A240" s="2"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A241" s="2"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A242" s="2"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A243" s="2"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A244" s="2"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A246" s="2"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A248" s="2"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A249" s="2"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A250" s="2"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A251" s="2"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A252" s="2"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A253" s="2"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A254" s="2"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A255" s="2"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A256" s="2"/>
+      <c r="A256" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,170 +2224,141 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="63" style="23" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="12.5703125" style="11"/>
+    <col min="1" max="1" width="16.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="144.140625" style="46" customWidth="1"/>
+    <col min="4" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="C3" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C4" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C5" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C6" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15" t="s">
+      <c r="C7" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C8" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="B9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C9" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C10" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
+      <c r="B11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C11" s="45"/>
+    </row>
+    <row r="12" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
+      <c r="B12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="C12" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2098,152 +2366,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA926084-281D-4247-AD1C-773481362017}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B24:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="144.28515625" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="144.28515625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="54" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B3" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B11" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="54" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B13" s="32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B16" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="34"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B21" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="36" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
